--- a/Code/Results/Cases/Case_8_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7811340591642306</v>
+        <v>0.7511019645747865</v>
       </c>
       <c r="C2">
-        <v>0.1419463764875815</v>
+        <v>0.1637976909400578</v>
       </c>
       <c r="D2">
-        <v>0.1521780093343352</v>
+        <v>0.1633661616078115</v>
       </c>
       <c r="E2">
-        <v>0.1099508516855181</v>
+        <v>0.116239360844169</v>
       </c>
       <c r="F2">
-        <v>0.7986154418477014</v>
+        <v>0.7352200374433977</v>
       </c>
       <c r="G2">
-        <v>0.0008209761419537186</v>
+        <v>0.01467375866001747</v>
       </c>
       <c r="H2">
-        <v>0.003577631011247751</v>
+        <v>0.002204223117881043</v>
       </c>
       <c r="I2">
-        <v>0.002527832119271434</v>
+        <v>0.001114394432514487</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3740730891733044</v>
+        <v>0.3234285285658665</v>
       </c>
       <c r="L2">
-        <v>0.1144017722961124</v>
+        <v>0.1619838957506268</v>
       </c>
       <c r="M2">
-        <v>0.8707186242156979</v>
+        <v>0.08744794642438336</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1189198042904849</v>
       </c>
       <c r="O2">
-        <v>0.3245766237853829</v>
+        <v>0.8797707873599165</v>
       </c>
       <c r="P2">
-        <v>0.9580570546870559</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.870587428046377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3266635769609465</v>
+      </c>
+      <c r="R2">
+        <v>0.8932593348532354</v>
+      </c>
+      <c r="S2">
+        <v>1.658537986904236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6799889848035434</v>
+        <v>0.6577136467635398</v>
       </c>
       <c r="C3">
-        <v>0.1239992294130587</v>
+        <v>0.1412941785692681</v>
       </c>
       <c r="D3">
-        <v>0.1354086585143506</v>
+        <v>0.1460009203295982</v>
       </c>
       <c r="E3">
-        <v>0.09948485727050738</v>
+        <v>0.1059184438853222</v>
       </c>
       <c r="F3">
-        <v>0.7693170736726671</v>
+        <v>0.7074412070838321</v>
       </c>
       <c r="G3">
-        <v>0.0008235813828821576</v>
+        <v>0.01773347574976414</v>
       </c>
       <c r="H3">
-        <v>0.005226236771174397</v>
+        <v>0.003404621690403231</v>
       </c>
       <c r="I3">
-        <v>0.003614259754745497</v>
+        <v>0.001596483861700193</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.373321618850337</v>
+        <v>0.3233476593924962</v>
       </c>
       <c r="L3">
-        <v>0.1048830619076213</v>
+        <v>0.1660657572145787</v>
       </c>
       <c r="M3">
-        <v>0.7581484717158276</v>
+        <v>0.08481442427202879</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.109926093393419</v>
       </c>
       <c r="O3">
-        <v>0.2841823253269453</v>
+        <v>0.7673573440185351</v>
       </c>
       <c r="P3">
-        <v>0.98773026438844</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.832451300256636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2859096357651509</v>
+      </c>
+      <c r="R3">
+        <v>0.9178917431737696</v>
+      </c>
+      <c r="S3">
+        <v>1.621573643453658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6175538541528454</v>
+        <v>0.5998659857086182</v>
       </c>
       <c r="C4">
-        <v>0.1131292253336653</v>
+        <v>0.1277037755702395</v>
       </c>
       <c r="D4">
-        <v>0.125158929573189</v>
+        <v>0.135414758663174</v>
       </c>
       <c r="E4">
-        <v>0.09305621011898424</v>
+        <v>0.09958524201446295</v>
       </c>
       <c r="F4">
-        <v>0.7517742485820165</v>
+        <v>0.6906299920652614</v>
       </c>
       <c r="G4">
-        <v>0.0008252401871962283</v>
+        <v>0.01983064560204373</v>
       </c>
       <c r="H4">
-        <v>0.006440169457492317</v>
+        <v>0.004306478504272404</v>
       </c>
       <c r="I4">
-        <v>0.004457471183095585</v>
+        <v>0.002020985455628121</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3730507633096138</v>
+        <v>0.323368633508359</v>
       </c>
       <c r="L4">
-        <v>0.09900375595940147</v>
+        <v>0.1686426541394859</v>
       </c>
       <c r="M4">
-        <v>0.6889609946241393</v>
+        <v>0.0836841990492001</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1043661773245788</v>
       </c>
       <c r="O4">
-        <v>0.259385652462111</v>
+        <v>0.6981826413822887</v>
       </c>
       <c r="P4">
-        <v>1.006525314007558</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.810293514399334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2608793067896968</v>
+      </c>
+      <c r="R4">
+        <v>0.9335223994887389</v>
+      </c>
+      <c r="S4">
+        <v>1.599476951906652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5913960738780872</v>
+        <v>0.5755483461435915</v>
       </c>
       <c r="C5">
-        <v>0.1090707476245001</v>
+        <v>0.122578899173476</v>
       </c>
       <c r="D5">
-        <v>0.1210744622604665</v>
+        <v>0.1312027598707886</v>
       </c>
       <c r="E5">
-        <v>0.09044896969574268</v>
+        <v>0.09701910783512702</v>
       </c>
       <c r="F5">
-        <v>0.7442851973039097</v>
+        <v>0.6833986961061314</v>
       </c>
       <c r="G5">
-        <v>0.0008259356148089199</v>
+        <v>0.02074445403172076</v>
       </c>
       <c r="H5">
-        <v>0.006985999545712829</v>
+        <v>0.004715589453367586</v>
       </c>
       <c r="I5">
-        <v>0.004921317034047856</v>
+        <v>0.002311718075137748</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3726705068307368</v>
+        <v>0.3230967655939665</v>
       </c>
       <c r="L5">
-        <v>0.09657989636294673</v>
+        <v>0.1695580058155031</v>
       </c>
       <c r="M5">
-        <v>0.6607138344424612</v>
+        <v>0.08327369939140183</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1020722062294084</v>
       </c>
       <c r="O5">
-        <v>0.2492968059914737</v>
+        <v>0.6699214530354567</v>
       </c>
       <c r="P5">
-        <v>1.014228515476783</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.800288010681697</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2506924949518492</v>
+      </c>
+      <c r="R5">
+        <v>0.9399474558638738</v>
+      </c>
+      <c r="S5">
+        <v>1.589373507560325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5862756962165179</v>
+        <v>0.5707476675610792</v>
       </c>
       <c r="C6">
-        <v>0.108811728964838</v>
+        <v>0.1221720684357592</v>
       </c>
       <c r="D6">
-        <v>0.1204969205491722</v>
+        <v>0.1306070589078274</v>
       </c>
       <c r="E6">
-        <v>0.09003286295472179</v>
+        <v>0.09661052718084306</v>
       </c>
       <c r="F6">
-        <v>0.7425001611233242</v>
+        <v>0.681664680129515</v>
       </c>
       <c r="G6">
-        <v>0.0008260573814940497</v>
+        <v>0.0209067827245506</v>
       </c>
       <c r="H6">
-        <v>0.007082329012551958</v>
+        <v>0.004787940181985473</v>
       </c>
       <c r="I6">
-        <v>0.005102994379990733</v>
+        <v>0.002476569466883127</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3722235433284808</v>
+        <v>0.3226895872829374</v>
       </c>
       <c r="L6">
-        <v>0.09615415639650138</v>
+        <v>0.169525518063228</v>
       </c>
       <c r="M6">
-        <v>0.6559840090347677</v>
+        <v>0.0831242499683853</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.101668379504261</v>
       </c>
       <c r="O6">
-        <v>0.2476414974920544</v>
+        <v>0.6651883899985336</v>
       </c>
       <c r="P6">
-        <v>1.015398283604426</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.797078584196569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2490208501023794</v>
+      </c>
+      <c r="R6">
+        <v>0.9409390802841147</v>
+      </c>
+      <c r="S6">
+        <v>1.586186295272057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6150861502740099</v>
+        <v>0.5963658482449432</v>
       </c>
       <c r="C7">
-        <v>0.1142034158317244</v>
+        <v>0.1278804058645306</v>
       </c>
       <c r="D7">
-        <v>0.125377547366142</v>
+        <v>0.1362409080406053</v>
       </c>
       <c r="E7">
-        <v>0.09306748526612907</v>
+        <v>0.09974441183849692</v>
       </c>
       <c r="F7">
-        <v>0.7501774911121402</v>
+        <v>0.6862563448765968</v>
       </c>
       <c r="G7">
-        <v>0.0008252639214786361</v>
+        <v>0.02026451193941603</v>
       </c>
       <c r="H7">
-        <v>0.006454450502605347</v>
+        <v>0.00432770063390292</v>
       </c>
       <c r="I7">
-        <v>0.004726518779368583</v>
+        <v>0.002328052606484832</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3719908075283342</v>
+        <v>0.3212235366237692</v>
       </c>
       <c r="L7">
-        <v>0.09890934796524675</v>
+        <v>0.1675931617406405</v>
       </c>
       <c r="M7">
-        <v>0.6884755299349195</v>
+        <v>0.08312340021387676</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.10421534536151</v>
       </c>
       <c r="O7">
-        <v>0.2593042071465099</v>
+        <v>0.6953829226063419</v>
       </c>
       <c r="P7">
-        <v>1.006319449517235</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.805884077061236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2604517305284979</v>
+      </c>
+      <c r="R7">
+        <v>0.9331111016884419</v>
+      </c>
+      <c r="S7">
+        <v>1.587183104240211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7434999524978423</v>
+        <v>0.7125492040285337</v>
       </c>
       <c r="C8">
-        <v>0.1372302490444497</v>
+        <v>0.1543610862096756</v>
       </c>
       <c r="D8">
-        <v>0.1467500597627946</v>
+        <v>0.159761812629867</v>
       </c>
       <c r="E8">
-        <v>0.1064046406985781</v>
+        <v>0.1132364081589685</v>
       </c>
       <c r="F8">
-        <v>0.7864444351291624</v>
+        <v>0.7143948377656031</v>
       </c>
       <c r="G8">
-        <v>0.0008218801467225269</v>
+        <v>0.01771260338985847</v>
       </c>
       <c r="H8">
-        <v>0.004110178374681528</v>
+        <v>0.002613835153325139</v>
       </c>
       <c r="I8">
-        <v>0.003180704449466276</v>
+        <v>0.001628561984492904</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3723861514456175</v>
+        <v>0.3183548631550472</v>
       </c>
       <c r="L8">
-        <v>0.1110454185231902</v>
+        <v>0.1611005339440688</v>
       </c>
       <c r="M8">
-        <v>0.8317736060833738</v>
+        <v>0.08491736525015803</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1155554153446658</v>
       </c>
       <c r="O8">
-        <v>0.3107185066967943</v>
+        <v>0.8331296528140797</v>
       </c>
       <c r="P8">
-        <v>0.9678149129879285</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.851537855541181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3115253690495194</v>
+      </c>
+      <c r="R8">
+        <v>0.900828670657166</v>
+      </c>
+      <c r="S8">
+        <v>1.613926645287364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.996578081257951</v>
+        <v>0.9440877266511052</v>
       </c>
       <c r="C9">
-        <v>0.1816710487136675</v>
+        <v>0.2094956864881397</v>
       </c>
       <c r="D9">
-        <v>0.1885893785577792</v>
+        <v>0.2038326087666888</v>
       </c>
       <c r="E9">
-        <v>0.1324879883852326</v>
+        <v>0.1391326654049863</v>
       </c>
       <c r="F9">
-        <v>0.8639924547019504</v>
+        <v>0.7844435104466783</v>
       </c>
       <c r="G9">
-        <v>0.000815682916482519</v>
+        <v>0.01158767935720117</v>
       </c>
       <c r="H9">
-        <v>0.001191490673150275</v>
+        <v>0.0005842488231766474</v>
       </c>
       <c r="I9">
-        <v>0.001224300952000767</v>
+        <v>0.0008455460642062818</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3766094614142617</v>
+        <v>0.3192183687211134</v>
       </c>
       <c r="L9">
-        <v>0.1347117228194605</v>
+        <v>0.1517772407749653</v>
       </c>
       <c r="M9">
-        <v>1.112649246842267</v>
+        <v>0.0939078904502928</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1378392349464761</v>
       </c>
       <c r="O9">
-        <v>0.4115762340852882</v>
+        <v>1.110751897853191</v>
       </c>
       <c r="P9">
-        <v>0.8974700675205312</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.959202008911888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4128427705055913</v>
+      </c>
+      <c r="R9">
+        <v>0.8428962802271833</v>
+      </c>
+      <c r="S9">
+        <v>1.707734887247682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.178196919868043</v>
+        <v>1.102969034909165</v>
       </c>
       <c r="C10">
-        <v>0.2144099168778553</v>
+        <v>0.2440722556449657</v>
       </c>
       <c r="D10">
-        <v>0.2147575806379649</v>
+        <v>0.2351924344875158</v>
       </c>
       <c r="E10">
-        <v>0.1455399699121109</v>
+        <v>0.1528536368734805</v>
       </c>
       <c r="F10">
-        <v>0.9115112033131822</v>
+        <v>0.810351860863868</v>
       </c>
       <c r="G10">
-        <v>0.0008114906224335831</v>
+        <v>0.01615534875529256</v>
       </c>
       <c r="H10">
-        <v>0.0004260252398320397</v>
+        <v>0.0002406559201446612</v>
       </c>
       <c r="I10">
-        <v>0.0009291251043954674</v>
+        <v>0.001140026337288269</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.377074282777663</v>
+        <v>0.3110653227301228</v>
       </c>
       <c r="L10">
-        <v>0.1443518974328057</v>
+        <v>0.1420428619274645</v>
       </c>
       <c r="M10">
-        <v>1.31539233985103</v>
+        <v>0.09916342172981985</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1461809125136284</v>
       </c>
       <c r="O10">
-        <v>0.4762855751944315</v>
+        <v>1.296561474061747</v>
       </c>
       <c r="P10">
-        <v>0.848443143630516</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.023169233479138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4756530267069365</v>
+      </c>
+      <c r="R10">
+        <v>0.8039358364875149</v>
+      </c>
+      <c r="S10">
+        <v>1.715784913181722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.24136147929832</v>
+        <v>1.150277843455513</v>
       </c>
       <c r="C11">
-        <v>0.2184082812623558</v>
+        <v>0.2350443121081156</v>
       </c>
       <c r="D11">
-        <v>0.185010060547441</v>
+        <v>0.2111533873686255</v>
       </c>
       <c r="E11">
-        <v>0.103424056371697</v>
+        <v>0.1111724022079272</v>
       </c>
       <c r="F11">
-        <v>0.8350893033977513</v>
+        <v>0.708440492342902</v>
       </c>
       <c r="G11">
-        <v>0.0008103389910474879</v>
+        <v>0.0502086841835947</v>
       </c>
       <c r="H11">
-        <v>0.01902635858330015</v>
+        <v>0.01884473288191302</v>
       </c>
       <c r="I11">
-        <v>0.001431770538221855</v>
+        <v>0.001843015609885867</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3490593783281497</v>
+        <v>0.2757334707177144</v>
       </c>
       <c r="L11">
-        <v>0.09387075534268519</v>
+        <v>0.1271675927839091</v>
       </c>
       <c r="M11">
-        <v>1.374925806947346</v>
+        <v>0.08856909732008234</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09530705454587718</v>
       </c>
       <c r="O11">
-        <v>0.4245178914579597</v>
+        <v>1.324684249329948</v>
       </c>
       <c r="P11">
-        <v>0.827641591855679</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.874558964517973</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4195325924195572</v>
+      </c>
+      <c r="R11">
+        <v>0.8007481565655645</v>
+      </c>
+      <c r="S11">
+        <v>1.4966464148998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.259555257186008</v>
+        <v>1.16402567817309</v>
       </c>
       <c r="C12">
-        <v>0.2129109407343179</v>
+        <v>0.2220122659006307</v>
       </c>
       <c r="D12">
-        <v>0.1560916198261282</v>
+        <v>0.1830606593353536</v>
       </c>
       <c r="E12">
-        <v>0.07264609460765215</v>
+        <v>0.07971819769551303</v>
       </c>
       <c r="F12">
-        <v>0.7650302417719246</v>
+        <v>0.6332079161198152</v>
       </c>
       <c r="G12">
-        <v>0.0008101603270018684</v>
+        <v>0.07485976213513368</v>
       </c>
       <c r="H12">
-        <v>0.05778901299331096</v>
+        <v>0.05757957509153755</v>
       </c>
       <c r="I12">
-        <v>0.001430047124308054</v>
+        <v>0.001851526570995077</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3275640781866258</v>
+        <v>0.2542833857034346</v>
       </c>
       <c r="L12">
-        <v>0.06469105367885497</v>
+        <v>0.1192294841961612</v>
       </c>
       <c r="M12">
-        <v>1.381856841215836</v>
+        <v>0.08081967920269051</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06634502600654812</v>
       </c>
       <c r="O12">
-        <v>0.3700501189971135</v>
+        <v>1.317472611205829</v>
       </c>
       <c r="P12">
-        <v>0.8248231143422942</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.744827647590938</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3634214552789743</v>
+      </c>
+      <c r="R12">
+        <v>0.8122199425552594</v>
+      </c>
+      <c r="S12">
+        <v>1.351553822535905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.240658103558559</v>
+        <v>1.15248431782436</v>
       </c>
       <c r="C13">
-        <v>0.2016125143010754</v>
+        <v>0.209121627028594</v>
       </c>
       <c r="D13">
-        <v>0.1267276870991481</v>
+        <v>0.1500781584982462</v>
       </c>
       <c r="E13">
-        <v>0.0489398579737319</v>
+        <v>0.05460582179909146</v>
       </c>
       <c r="F13">
-        <v>0.6935271851364178</v>
+        <v>0.5750184152441804</v>
       </c>
       <c r="G13">
-        <v>0.0008107397488987256</v>
+        <v>0.0693034189532753</v>
       </c>
       <c r="H13">
-        <v>0.1137009994620826</v>
+        <v>0.1134224446792302</v>
       </c>
       <c r="I13">
-        <v>0.001392552839275751</v>
+        <v>0.001760910946859262</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3081302310421172</v>
+        <v>0.2416190806658669</v>
       </c>
       <c r="L13">
-        <v>0.04998205930801891</v>
+        <v>0.1152684710301397</v>
       </c>
       <c r="M13">
-        <v>1.348448037418649</v>
+        <v>0.07506391077069097</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05222870095124188</v>
       </c>
       <c r="O13">
-        <v>0.3108091182283985</v>
+        <v>1.288514583231972</v>
       </c>
       <c r="P13">
-        <v>0.8345672726093447</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.615216306886538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3049479886265374</v>
+      </c>
+      <c r="R13">
+        <v>0.8288020058693633</v>
+      </c>
+      <c r="S13">
+        <v>1.257180682649235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.210022851574251</v>
+        <v>1.132188669815775</v>
       </c>
       <c r="C14">
-        <v>0.1914797353240232</v>
+        <v>0.2002659378478313</v>
       </c>
       <c r="D14">
-        <v>0.1065140176928736</v>
+        <v>0.125869289655796</v>
       </c>
       <c r="E14">
-        <v>0.036670648098168</v>
+        <v>0.04129097379166424</v>
       </c>
       <c r="F14">
-        <v>0.6431786094459042</v>
+        <v>0.5405756582724521</v>
       </c>
       <c r="G14">
-        <v>0.0008114889903943057</v>
+        <v>0.05287594113092098</v>
       </c>
       <c r="H14">
-        <v>0.1632032498326907</v>
+        <v>0.1628511661158427</v>
       </c>
       <c r="I14">
-        <v>0.001446123255368192</v>
+        <v>0.001755160100728403</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2953860788463913</v>
+        <v>0.2359705281877478</v>
       </c>
       <c r="L14">
-        <v>0.04825030041856682</v>
+        <v>0.1138973903747953</v>
       </c>
       <c r="M14">
-        <v>1.30688160480392</v>
+        <v>0.07177136635553261</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05099304079510247</v>
       </c>
       <c r="O14">
-        <v>0.2680104301948134</v>
+        <v>1.258031799818724</v>
       </c>
       <c r="P14">
-        <v>0.8474165615737057</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.524586557721832</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2635208378231546</v>
+      </c>
+      <c r="R14">
+        <v>0.8415588886552854</v>
+      </c>
+      <c r="S14">
+        <v>1.209682897750739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.193827781224741</v>
+        <v>1.120776353128861</v>
       </c>
       <c r="C15">
-        <v>0.1882334896146318</v>
+        <v>0.198318141876868</v>
       </c>
       <c r="D15">
-        <v>0.1013378659354416</v>
+        <v>0.1191336116843615</v>
       </c>
       <c r="E15">
-        <v>0.0342282886771974</v>
+        <v>0.03858703449152046</v>
       </c>
       <c r="F15">
-        <v>0.6299696696658259</v>
+        <v>0.5340246652731366</v>
       </c>
       <c r="G15">
-        <v>0.0008118472778719192</v>
+        <v>0.04452831268331536</v>
       </c>
       <c r="H15">
-        <v>0.1757845883054614</v>
+        <v>0.175396344052956</v>
       </c>
       <c r="I15">
-        <v>0.001576619339643592</v>
+        <v>0.001872447581904524</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2923475524234256</v>
+        <v>0.235700449444197</v>
       </c>
       <c r="L15">
-        <v>0.04889401959667339</v>
+        <v>0.1140828394750084</v>
       </c>
       <c r="M15">
-        <v>1.288248703833375</v>
+        <v>0.07115384723386775</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05179846322096182</v>
       </c>
       <c r="O15">
-        <v>0.2563075480475767</v>
+        <v>1.245487853389903</v>
       </c>
       <c r="P15">
-        <v>0.852745832611145</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.501018301600837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2524874348114849</v>
+      </c>
+      <c r="R15">
+        <v>0.8448292033419662</v>
+      </c>
+      <c r="S15">
+        <v>1.204505420874227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.118456468971146</v>
+        <v>1.06430590516743</v>
       </c>
       <c r="C16">
-        <v>0.1772973052141111</v>
+        <v>0.1952848545777641</v>
       </c>
       <c r="D16">
-        <v>0.09697909688662776</v>
+        <v>0.1096163856397112</v>
       </c>
       <c r="E16">
-        <v>0.03409690056668246</v>
+        <v>0.03824324929898815</v>
       </c>
       <c r="F16">
-        <v>0.6240079629438924</v>
+        <v>0.5519703769310027</v>
       </c>
       <c r="G16">
-        <v>0.0008135223870960884</v>
+        <v>0.0166375517585422</v>
       </c>
       <c r="H16">
-        <v>0.1634265560546879</v>
+        <v>0.1628377327160706</v>
       </c>
       <c r="I16">
-        <v>0.00179696240194982</v>
+        <v>0.001913271870442657</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2954201116757709</v>
+        <v>0.2474770389241527</v>
       </c>
       <c r="L16">
-        <v>0.04806687672120802</v>
+        <v>0.1197196209386409</v>
       </c>
       <c r="M16">
-        <v>1.208269553483746</v>
+        <v>0.0732684027614372</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05142751853527905</v>
       </c>
       <c r="O16">
-        <v>0.2422675341383567</v>
+        <v>1.193460026515908</v>
       </c>
       <c r="P16">
-        <v>0.86952671290409</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.497749024598733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2413360228508097</v>
+      </c>
+      <c r="R16">
+        <v>0.8455071041997542</v>
+      </c>
+      <c r="S16">
+        <v>1.268229703075662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.076903730542369</v>
+        <v>1.029827219178088</v>
       </c>
       <c r="C17">
-        <v>0.1743357196417605</v>
+        <v>0.1964572956433841</v>
       </c>
       <c r="D17">
-        <v>0.1040600730925263</v>
+        <v>0.1151056452496704</v>
       </c>
       <c r="E17">
-        <v>0.03973265667088732</v>
+        <v>0.04406949307325192</v>
       </c>
       <c r="F17">
-        <v>0.6458302082365606</v>
+        <v>0.5820548417241369</v>
       </c>
       <c r="G17">
-        <v>0.0008144153306245444</v>
+        <v>0.01089163220726608</v>
       </c>
       <c r="H17">
-        <v>0.1258627720178112</v>
+        <v>0.1251554308756084</v>
       </c>
       <c r="I17">
-        <v>0.001976004711373491</v>
+        <v>0.001979085399704594</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3044801021569583</v>
+        <v>0.258941885298686</v>
       </c>
       <c r="L17">
-        <v>0.04693844335878827</v>
+        <v>0.1249056118499201</v>
       </c>
       <c r="M17">
-        <v>1.169058143180109</v>
+        <v>0.07617277615606532</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05045333888643011</v>
       </c>
       <c r="O17">
-        <v>0.2536623634194264</v>
+        <v>1.166042544867679</v>
       </c>
       <c r="P17">
-        <v>0.8756841683026231</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.543024617517403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2540211797482854</v>
+      </c>
+      <c r="R17">
+        <v>0.8430572346150136</v>
+      </c>
+      <c r="S17">
+        <v>1.336841594574139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.061399851129636</v>
+        <v>1.014792316633077</v>
       </c>
       <c r="C18">
-        <v>0.1769499902205212</v>
+        <v>0.2024548237519497</v>
       </c>
       <c r="D18">
-        <v>0.1228080829363449</v>
+        <v>0.1339541759732867</v>
       </c>
       <c r="E18">
-        <v>0.05475624592200212</v>
+        <v>0.0594896139829082</v>
       </c>
       <c r="F18">
-        <v>0.6964037747955416</v>
+        <v>0.6331916140964537</v>
       </c>
       <c r="G18">
-        <v>0.0008146860066940591</v>
+        <v>0.009519737272100759</v>
       </c>
       <c r="H18">
-        <v>0.07303494025867963</v>
+        <v>0.07230804255571854</v>
       </c>
       <c r="I18">
-        <v>0.001796957080434147</v>
+        <v>0.001715869671667036</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.320800062598309</v>
+        <v>0.2741587194587076</v>
       </c>
       <c r="L18">
-        <v>0.05293551480732894</v>
+        <v>0.1311876488758159</v>
       </c>
       <c r="M18">
-        <v>1.160240352884387</v>
+        <v>0.08111255629960112</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05640357820944253</v>
       </c>
       <c r="O18">
-        <v>0.2899492410911151</v>
+        <v>1.162003659789605</v>
       </c>
       <c r="P18">
-        <v>0.8750549354701178</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.639907567913113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2910550658464999</v>
+      </c>
+      <c r="R18">
+        <v>0.8365805223372895</v>
+      </c>
+      <c r="S18">
+        <v>1.435438170742216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.063760126647793</v>
+        <v>1.013563446601808</v>
       </c>
       <c r="C19">
-        <v>0.1860199560433955</v>
+        <v>0.2151273880338636</v>
       </c>
       <c r="D19">
-        <v>0.151935190869608</v>
+        <v>0.1642226716776065</v>
       </c>
       <c r="E19">
-        <v>0.08205234185097154</v>
+        <v>0.08733168661181523</v>
       </c>
       <c r="F19">
-        <v>0.7666322784460036</v>
+        <v>0.6994823719212064</v>
       </c>
       <c r="G19">
-        <v>0.000814413591230129</v>
+        <v>0.008965472547635578</v>
       </c>
       <c r="H19">
-        <v>0.02751888177640893</v>
+        <v>0.02688391192948103</v>
       </c>
       <c r="I19">
-        <v>0.001879608595355187</v>
+        <v>0.001856064584618622</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.340884942369815</v>
+        <v>0.2911135355640297</v>
       </c>
       <c r="L19">
-        <v>0.07538746931417606</v>
+        <v>0.137757138233102</v>
       </c>
       <c r="M19">
-        <v>1.17614516313273</v>
+        <v>0.08728343506267322</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07863628883058027</v>
       </c>
       <c r="O19">
-        <v>0.3466883548920663</v>
+        <v>1.178962968265523</v>
       </c>
       <c r="P19">
-        <v>0.8722022863096424</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.768160263782136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3482974128424416</v>
+      </c>
+      <c r="R19">
+        <v>0.8293308566920956</v>
+      </c>
+      <c r="S19">
+        <v>1.553131391360893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.123744844153634</v>
+        <v>1.058951128259054</v>
       </c>
       <c r="C20">
-        <v>0.2092993610404505</v>
+        <v>0.2424066080547931</v>
       </c>
       <c r="D20">
-        <v>0.2085213140077542</v>
+        <v>0.2253563648057479</v>
       </c>
       <c r="E20">
-        <v>0.1419972547124537</v>
+        <v>0.1485923798275941</v>
       </c>
       <c r="F20">
-        <v>0.8937791765588301</v>
+        <v>0.8084303025756938</v>
       </c>
       <c r="G20">
-        <v>0.0008126142322455729</v>
+        <v>0.009834762450242174</v>
       </c>
       <c r="H20">
-        <v>0.0005404851938366484</v>
+        <v>0.0002522200675718622</v>
       </c>
       <c r="I20">
-        <v>0.001733750805769319</v>
+        <v>0.001955740947949813</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3735440781430555</v>
+        <v>0.3140417510862754</v>
       </c>
       <c r="L20">
-        <v>0.1413145450043345</v>
+        <v>0.1448204371316031</v>
       </c>
       <c r="M20">
-        <v>1.261633266034721</v>
+        <v>0.09803041467431228</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1436842819796098</v>
       </c>
       <c r="O20">
-        <v>0.4590552914793165</v>
+        <v>1.255947936865255</v>
       </c>
       <c r="P20">
-        <v>0.86056421563248</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.99192811837969</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4602126041354637</v>
+      </c>
+      <c r="R20">
+        <v>0.8137200844648813</v>
+      </c>
+      <c r="S20">
+        <v>1.727968383171742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.266822296116288</v>
+        <v>1.161406686376381</v>
       </c>
       <c r="C21">
-        <v>0.2363439007758643</v>
+        <v>0.2524002915656212</v>
       </c>
       <c r="D21">
-        <v>0.2363402053068171</v>
+        <v>0.2700001114254462</v>
       </c>
       <c r="E21">
-        <v>0.1615949321635739</v>
+        <v>0.1719297886719708</v>
       </c>
       <c r="F21">
-        <v>0.9496846663957683</v>
+        <v>0.7945621702645269</v>
       </c>
       <c r="G21">
-        <v>0.000809339273462865</v>
+        <v>0.07100401135432577</v>
       </c>
       <c r="H21">
-        <v>1.818699029976223E-05</v>
+        <v>3.564831980717997E-06</v>
       </c>
       <c r="I21">
-        <v>0.001673467565154851</v>
+        <v>0.002195811241746171</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3798784190450135</v>
+        <v>0.2931083792631242</v>
       </c>
       <c r="L21">
-        <v>0.1605254116881838</v>
+        <v>0.1327913492290822</v>
       </c>
       <c r="M21">
-        <v>1.423123131416475</v>
+        <v>0.09630803218166761</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1608149043167302</v>
       </c>
       <c r="O21">
-        <v>0.5236543156406128</v>
+        <v>1.358507182170911</v>
       </c>
       <c r="P21">
-        <v>0.8247027400944367</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.077728605930787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5164708912108154</v>
+      </c>
+      <c r="R21">
+        <v>0.7879228970520415</v>
+      </c>
+      <c r="S21">
+        <v>1.623876025873955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.362039162129975</v>
+        <v>1.228027855517183</v>
       </c>
       <c r="C22">
-        <v>0.2519908661323598</v>
+        <v>0.2553181614388649</v>
       </c>
       <c r="D22">
-        <v>0.2516748478942219</v>
+        <v>0.297801244243928</v>
       </c>
       <c r="E22">
-        <v>0.1712102535645847</v>
+        <v>0.1843534574876315</v>
       </c>
       <c r="F22">
-        <v>0.9829588043625392</v>
+        <v>0.7787686426112757</v>
       </c>
       <c r="G22">
-        <v>0.0008072739403400774</v>
+        <v>0.1597460305861773</v>
       </c>
       <c r="H22">
-        <v>3.04894010458856E-05</v>
+        <v>9.891080928592366E-05</v>
       </c>
       <c r="I22">
-        <v>0.001540517374110983</v>
+        <v>0.002095944473516909</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3839542646515604</v>
+        <v>0.2784883083263701</v>
       </c>
       <c r="L22">
-        <v>0.1692739177038476</v>
+        <v>0.1252488366879465</v>
       </c>
       <c r="M22">
-        <v>1.527081316401336</v>
+        <v>0.09459308603676675</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1682091887783415</v>
       </c>
       <c r="O22">
-        <v>0.5609915075432994</v>
+        <v>1.419797737676419</v>
       </c>
       <c r="P22">
-        <v>0.8018950391242026</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.130519736254286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5476230630284533</v>
+      </c>
+      <c r="R22">
+        <v>0.7750821490837367</v>
+      </c>
+      <c r="S22">
+        <v>1.54504203137725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.313821182030466</v>
+        <v>1.198010053434615</v>
       </c>
       <c r="C23">
-        <v>0.2422373564613594</v>
+        <v>0.2548841559015358</v>
       </c>
       <c r="D23">
-        <v>0.2431515407474478</v>
+        <v>0.2807524559661374</v>
       </c>
       <c r="E23">
-        <v>0.1660178388496369</v>
+        <v>0.1771982762399986</v>
       </c>
       <c r="F23">
-        <v>0.9668867100034078</v>
+        <v>0.7956886193362038</v>
       </c>
       <c r="G23">
-        <v>0.0008083589814040946</v>
+        <v>0.09397582517931369</v>
       </c>
       <c r="H23">
-        <v>1.298914182878974E-07</v>
+        <v>3.381646186317866E-05</v>
       </c>
       <c r="I23">
-        <v>0.001288508957901335</v>
+        <v>0.001781827802828317</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3829667180492216</v>
+        <v>0.2897793900738428</v>
       </c>
       <c r="L23">
-        <v>0.1646755467283967</v>
+        <v>0.1303509430203462</v>
       </c>
       <c r="M23">
-        <v>1.471720839530661</v>
+        <v>0.09702495047924486</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1644510453421333</v>
       </c>
       <c r="O23">
-        <v>0.5409925178755373</v>
+        <v>1.393557529390392</v>
       </c>
       <c r="P23">
-        <v>0.8141760494563126</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.107141536189005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5319030112141618</v>
+      </c>
+      <c r="R23">
+        <v>0.7804925865645238</v>
+      </c>
+      <c r="S23">
+        <v>1.60993977227244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.126749772711918</v>
+        <v>1.061701709878037</v>
       </c>
       <c r="C24">
-        <v>0.2079316098558905</v>
+        <v>0.241340121169145</v>
       </c>
       <c r="D24">
-        <v>0.2115549185305809</v>
+        <v>0.2284170930121974</v>
       </c>
       <c r="E24">
-        <v>0.1464970349653676</v>
+        <v>0.1531374145555091</v>
       </c>
       <c r="F24">
-        <v>0.9045106969845875</v>
+        <v>0.8189559541963689</v>
       </c>
       <c r="G24">
-        <v>0.0008125800337805106</v>
+        <v>0.00960669732764341</v>
       </c>
       <c r="H24">
-        <v>0.0003883124852606112</v>
+        <v>0.000115215039670824</v>
       </c>
       <c r="I24">
-        <v>0.001234950893136855</v>
+        <v>0.00136838282066698</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3778141057659852</v>
+        <v>0.3178748011478412</v>
       </c>
       <c r="L24">
-        <v>0.1471487106059541</v>
+        <v>0.1463020159606501</v>
       </c>
       <c r="M24">
-        <v>1.26212697969595</v>
+        <v>0.0994244184615134</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1494947897780108</v>
       </c>
       <c r="O24">
-        <v>0.465516365921566</v>
+        <v>1.256900630516469</v>
       </c>
       <c r="P24">
-        <v>0.8617193982085807</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.01417787520586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.46677670367324</v>
+      </c>
+      <c r="R24">
+        <v>0.8138621381186955</v>
+      </c>
+      <c r="S24">
+        <v>1.749530674481548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9244743372270818</v>
+        <v>0.8797120947928647</v>
       </c>
       <c r="C25">
-        <v>0.1715691814427345</v>
+        <v>0.1980410702905715</v>
       </c>
       <c r="D25">
-        <v>0.1777200935024155</v>
+        <v>0.1914699860239466</v>
       </c>
       <c r="E25">
-        <v>0.1255120022187661</v>
+        <v>0.1319915074080988</v>
       </c>
       <c r="F25">
-        <v>0.8398923507592002</v>
+        <v>0.7666154159925824</v>
       </c>
       <c r="G25">
-        <v>0.0008173336057444162</v>
+        <v>0.01193077649873686</v>
       </c>
       <c r="H25">
-        <v>0.001793747155260927</v>
+        <v>0.0009733188758294098</v>
       </c>
       <c r="I25">
-        <v>0.002028157071372938</v>
+        <v>0.001445975284466883</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3734116480370275</v>
+        <v>0.3187915026037835</v>
       </c>
       <c r="L25">
-        <v>0.1282203292879487</v>
+        <v>0.1541859728341386</v>
       </c>
       <c r="M25">
-        <v>1.036463538878763</v>
+        <v>0.09101761667818487</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1318096050314068</v>
       </c>
       <c r="O25">
-        <v>0.3843619434068586</v>
+        <v>1.03892188504841</v>
       </c>
       <c r="P25">
-        <v>0.9155939072626191</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.921218866642334</v>
+        <v>0.3860257934017852</v>
+      </c>
+      <c r="R25">
+        <v>0.8581124489094254</v>
+      </c>
+      <c r="S25">
+        <v>1.685700431369781</v>
       </c>
     </row>
   </sheetData>
